--- a/data/trans_bre/P1805_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1805_2016_2023-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>2.380423157577541</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.9232064719696086</v>
+        <v>-0.9232064719696099</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>1.028354906930285</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.1420341516259986</v>
+        <v>-0.1420341516259988</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7572737064777082</v>
+        <v>0.8600993114871607</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.235838550509917</v>
+        <v>-4.392197087455242</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.2361990720226723</v>
+        <v>0.2749419336912856</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4756003293622662</v>
+        <v>-0.4812419685538116</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.900422710692371</v>
+        <v>3.90751864369721</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.550803620898773</v>
+        <v>1.840493664894451</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.287423408173849</v>
+        <v>2.397447168355523</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.3309534664669887</v>
+        <v>0.3887457792063765</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>1.540448614902359</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.440359307406667</v>
+        <v>0.4403593074066668</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7778530176345188</v>
+        <v>0.7232461226371099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7180364568164391</v>
+        <v>-0.7625696982696746</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.344638409594411</v>
+        <v>0.2811491098296452</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2244983860645057</v>
+        <v>-0.224711295258391</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.800581193924955</v>
+        <v>3.804375023627186</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.625658201235729</v>
+        <v>2.696038195924959</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.33111856703739</v>
+        <v>3.993474024076222</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.804437610825761</v>
+        <v>1.661422186033646</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9780717124563487</v>
+        <v>-1.135185394855327</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.040012917249492</v>
+        <v>1.083813668847277</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.3807370048450851</v>
+        <v>-0.4233592547989219</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.4425890979185026</v>
+        <v>0.3492523993093918</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.153968505845039</v>
+        <v>2.13254832800738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.230745927399771</v>
+        <v>4.243658047229801</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.573074790866645</v>
+        <v>1.53623286168298</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.624706096030334</v>
+        <v>3.682083208118506</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>1.90599473681238</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1524834910589877</v>
+        <v>0.1524834910589863</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>2.167688402392012</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.04222810845978027</v>
+        <v>0.04222810845977989</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3100129958393103</v>
+        <v>0.2972119142602911</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.70014872910099</v>
+        <v>-1.739685144820036</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.124002862088896</v>
+        <v>-0.1127814643430526</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3497114387480592</v>
+        <v>-0.3495917851542937</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.778203949561971</v>
+        <v>3.759464419148606</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.840908965881601</v>
+        <v>1.734191963480326</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13.11434698588582</v>
+        <v>16.41791347152145</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7582962272621324</v>
+        <v>0.668226085684459</v>
       </c>
     </row>
     <row r="16">
@@ -854,7 +854,7 @@
         <v>1.0220608061426</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.3221135491477292</v>
+        <v>0.3221135491477294</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.10267344646657</v>
+        <v>1.085456345165388</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05424216176961877</v>
+        <v>0.08228676793086799</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.4764587415563704</v>
+        <v>0.4720507285987914</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.01238561469864758</v>
+        <v>0.0220215265469588</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.712950011943804</v>
+        <v>2.719029617926661</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.901916172560041</v>
+        <v>1.952311976894003</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.787693419289776</v>
+        <v>1.807595889187881</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.7438658910413318</v>
+        <v>0.7634284134297179</v>
       </c>
     </row>
     <row r="19">
